--- a/verif/CV32E40P/SimulationVerificationPlan/micro_architecture/CV32E40P_Pipeline_Sleep.xlsx
+++ b/verif/CV32E40P/SimulationVerificationPlan/micro_architecture/CV32E40P_Pipeline_Sleep.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t xml:space="preserve">Requirement Location</t>
   </si>
@@ -234,6 +234,9 @@
     <t xml:space="preserve">Testcase</t>
   </si>
   <si>
+    <t xml:space="preserve">Virtually every interrupt test does this.</t>
+  </si>
+  <si>
     <t xml:space="preserve">WFI Exit 1</t>
   </si>
   <si>
@@ -328,7 +331,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -365,12 +368,6 @@
       <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -435,7 +432,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -460,7 +457,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -472,10 +469,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -484,11 +477,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -579,10 +572,10 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.01953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -686,7 +679,7 @@
       </c>
     </row>
     <row r="4" s="5" customFormat="true" ht="60.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -715,7 +708,7 @@
       </c>
     </row>
     <row r="5" s="5" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
         <v>30</v>
       </c>
@@ -742,7 +735,7 @@
       </c>
     </row>
     <row r="6" s="5" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>34</v>
       </c>
@@ -764,40 +757,42 @@
       <c r="H6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" s="5" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1570,18 +1565,18 @@
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
     </row>
-    <row r="79" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
+    <row r="79" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1610,8 +1605,8 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="id1" display="https://core-v-docs-verif-strat.readthedocs.io/projects/cv32e40p_um/en/latest/pipeline.html#id1"/>
-    <hyperlink ref="A4" r:id="rId2" location="sleep-unit" display="https://core-v-docs-verif-strat.readthedocs.io/projects/cv32e40p_um/en/latest/sleep.html#sleep-unit"/>
+    <hyperlink ref="A2" r:id="rId1" location="id1" display="CV32E40P User Manual&#10;Rev. 49205655&#10;Pipeline Details&#10;https://core-v-docs-verif-strat.readthedocs.io/projects/cv32e40p_um/en/latest/pipeline.html#id1"/>
+    <hyperlink ref="A4" r:id="rId2" location="sleep-unit" display="CV32E40P User Manual&#10;Rev. 49205655&#10;Sleep Unit&#10;https://core-v-docs-verif-strat.readthedocs.io/projects/cv32e40p_um/en/latest/sleep.html#sleep-unit"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1634,7 +1629,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.13"/>
@@ -1642,15 +1637,15 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1659,7 +1654,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>40</v>
@@ -1667,13 +1662,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1689,21 +1684,21 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>28</v>
@@ -1711,7 +1706,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>15</v>
@@ -1719,10 +1714,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1755,7 +1750,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.32"/>
@@ -1765,42 +1760,42 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>62</v>
       </c>
+      <c r="E2" s="13" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>65</v>
       </c>
+      <c r="D3" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>69</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
